--- a/natmiOut/OldD2/LR-pairs_lrc2p/Icam1-Itgal.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Icam1-Itgal.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>28.8967953831508</v>
+        <v>29.747261</v>
       </c>
       <c r="H2">
-        <v>28.8967953831508</v>
+        <v>59.494522</v>
       </c>
       <c r="I2">
-        <v>0.1903764027341442</v>
+        <v>0.1897261270801772</v>
       </c>
       <c r="J2">
-        <v>0.1903764027341442</v>
+        <v>0.1356501617082849</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.183886783266226</v>
+        <v>0.201234</v>
       </c>
       <c r="N2">
-        <v>0.183886783266226</v>
+        <v>0.402468</v>
       </c>
       <c r="O2">
-        <v>0.00500922091510655</v>
+        <v>0.004466895590915998</v>
       </c>
       <c r="P2">
-        <v>0.00500922091510655</v>
+        <v>0.002986564688658119</v>
       </c>
       <c r="Q2">
-        <v>5.313738749709931</v>
+        <v>5.986160320073999</v>
       </c>
       <c r="R2">
-        <v>5.313738749709931</v>
+        <v>23.944641280296</v>
       </c>
       <c r="S2">
-        <v>0.0009536374583186228</v>
+        <v>0.0008474868005360119</v>
       </c>
       <c r="T2">
-        <v>0.0009536374583186228</v>
+        <v>0.0004051279829687274</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>28.8967953831508</v>
+        <v>29.747261</v>
       </c>
       <c r="H3">
-        <v>28.8967953831508</v>
+        <v>59.494522</v>
       </c>
       <c r="I3">
-        <v>0.1903764027341442</v>
+        <v>0.1897261270801772</v>
       </c>
       <c r="J3">
-        <v>0.1903764027341442</v>
+        <v>0.1356501617082849</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>11.1245070730189</v>
+        <v>0.048421</v>
       </c>
       <c r="N3">
-        <v>11.1245070730189</v>
+        <v>0.145263</v>
       </c>
       <c r="O3">
-        <v>0.303040340967517</v>
+        <v>0.00107482608012435</v>
       </c>
       <c r="P3">
-        <v>0.303040340967517</v>
+        <v>0.001077942460937377</v>
       </c>
       <c r="Q3">
-        <v>321.462604627441</v>
+        <v>1.440392124881</v>
       </c>
       <c r="R3">
-        <v>321.462604627441</v>
+        <v>8.642352749285999</v>
       </c>
       <c r="S3">
-        <v>0.05769172999672439</v>
+        <v>0.0002039225894667613</v>
       </c>
       <c r="T3">
-        <v>0.05769172999672439</v>
+        <v>0.0001462230691383818</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>28.8967953831508</v>
+        <v>29.747261</v>
       </c>
       <c r="H4">
-        <v>28.8967953831508</v>
+        <v>59.494522</v>
       </c>
       <c r="I4">
-        <v>0.1903764027341442</v>
+        <v>0.1897261270801772</v>
       </c>
       <c r="J4">
-        <v>0.1903764027341442</v>
+        <v>0.1356501617082849</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>25.2176634538606</v>
+        <v>19.00592</v>
       </c>
       <c r="N4">
-        <v>25.2176634538606</v>
+        <v>57.01776</v>
       </c>
       <c r="O4">
-        <v>0.6869490289593727</v>
+        <v>0.4218842752681067</v>
       </c>
       <c r="P4">
-        <v>0.6869490289593727</v>
+        <v>0.4231074983411932</v>
       </c>
       <c r="Q4">
-        <v>728.7096608673696</v>
+        <v>565.3740627851199</v>
       </c>
       <c r="R4">
-        <v>728.7096608673696</v>
+        <v>3392.24437671072</v>
       </c>
       <c r="S4">
-        <v>0.1307788849949988</v>
+        <v>0.08004246962264527</v>
       </c>
       <c r="T4">
-        <v>0.1307788849949988</v>
+        <v>0.05739460056997074</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>28.8967953831508</v>
+        <v>29.747261</v>
       </c>
       <c r="H5">
-        <v>28.8967953831508</v>
+        <v>59.494522</v>
       </c>
       <c r="I5">
-        <v>0.1903764027341442</v>
+        <v>0.1897261270801772</v>
       </c>
       <c r="J5">
-        <v>0.1903764027341442</v>
+        <v>0.1356501617082849</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.183600016339869</v>
+        <v>25.443508</v>
       </c>
       <c r="N5">
-        <v>0.183600016339869</v>
+        <v>76.330524</v>
       </c>
       <c r="O5">
-        <v>0.005001409158003873</v>
+        <v>0.5647827588908232</v>
       </c>
       <c r="P5">
-        <v>0.005001409158003873</v>
+        <v>0.5664203058259815</v>
       </c>
       <c r="Q5">
-        <v>5.305452104516338</v>
+        <v>756.8746732315878</v>
       </c>
       <c r="R5">
-        <v>5.305452104516338</v>
+        <v>4541.248039389528</v>
       </c>
       <c r="S5">
-        <v>0.0009521502841023824</v>
+        <v>0.1071540454860134</v>
       </c>
       <c r="T5">
-        <v>0.0009521502841023824</v>
+        <v>0.07683500608015056</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>20.4935243023309</v>
+        <v>29.747261</v>
       </c>
       <c r="H6">
-        <v>20.4935243023309</v>
+        <v>59.494522</v>
       </c>
       <c r="I6">
-        <v>0.1350143981120275</v>
+        <v>0.1897261270801772</v>
       </c>
       <c r="J6">
-        <v>0.1350143981120275</v>
+        <v>0.1356501617082849</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.183886783266226</v>
+        <v>0.1615046666666667</v>
       </c>
       <c r="N6">
-        <v>0.183886783266226</v>
+        <v>0.484514</v>
       </c>
       <c r="O6">
-        <v>0.00500922091510655</v>
+        <v>0.003585002949032923</v>
       </c>
       <c r="P6">
-        <v>0.00500922091510655</v>
+        <v>0.003595397406900673</v>
       </c>
       <c r="Q6">
-        <v>3.768488261743858</v>
+        <v>4.804321472051333</v>
       </c>
       <c r="R6">
-        <v>3.768488261743858</v>
+        <v>28.825928832308</v>
       </c>
       <c r="S6">
-        <v>0.0006763169468632902</v>
+        <v>0.0006801687250910304</v>
       </c>
       <c r="T6">
-        <v>0.0006763169468632902</v>
+        <v>0.0004877162396516244</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>20.4935243023309</v>
+        <v>29.747261</v>
       </c>
       <c r="H7">
-        <v>20.4935243023309</v>
+        <v>59.494522</v>
       </c>
       <c r="I7">
-        <v>0.1350143981120275</v>
+        <v>0.1897261270801772</v>
       </c>
       <c r="J7">
-        <v>0.1350143981120275</v>
+        <v>0.1356501617082849</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.1245070730189</v>
+        <v>0.1894915</v>
       </c>
       <c r="N7">
-        <v>11.1245070730189</v>
+        <v>0.378983</v>
       </c>
       <c r="O7">
-        <v>0.303040340967517</v>
+        <v>0.004206241220996745</v>
       </c>
       <c r="P7">
-        <v>0.303040340967517</v>
+        <v>0.002812291276329348</v>
       </c>
       <c r="Q7">
-        <v>227.9803560523648</v>
+        <v>5.6368531077815</v>
       </c>
       <c r="R7">
-        <v>227.9803560523648</v>
+        <v>22.547412431126</v>
       </c>
       <c r="S7">
-        <v>0.04091480923939288</v>
+        <v>0.0007980338564247081</v>
       </c>
       <c r="T7">
-        <v>0.04091480923939288</v>
+        <v>0.000381487766404875</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>20.4935243023309</v>
+        <v>21.75021766666667</v>
       </c>
       <c r="H8">
-        <v>20.4935243023309</v>
+        <v>65.250653</v>
       </c>
       <c r="I8">
-        <v>0.1350143981120275</v>
+        <v>0.1387214964445808</v>
       </c>
       <c r="J8">
-        <v>0.1350143981120275</v>
+        <v>0.1487743969271857</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>25.2176634538606</v>
+        <v>0.201234</v>
       </c>
       <c r="N8">
-        <v>25.2176634538606</v>
+        <v>0.402468</v>
       </c>
       <c r="O8">
-        <v>0.6869490289593727</v>
+        <v>0.004466895590915998</v>
       </c>
       <c r="P8">
-        <v>0.6869490289593727</v>
+        <v>0.002986564688658119</v>
       </c>
       <c r="Q8">
-        <v>516.798798839694</v>
+        <v>4.376883301934</v>
       </c>
       <c r="R8">
-        <v>516.798798839694</v>
+        <v>26.261299811604</v>
       </c>
       <c r="S8">
-        <v>0.09274800967859143</v>
+        <v>0.0006196544408335672</v>
       </c>
       <c r="T8">
-        <v>0.09274800967859143</v>
+        <v>0.00044432436043914</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,122 +968,122 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>20.4935243023309</v>
+        <v>21.75021766666667</v>
       </c>
       <c r="H9">
-        <v>20.4935243023309</v>
+        <v>65.250653</v>
       </c>
       <c r="I9">
-        <v>0.1350143981120275</v>
+        <v>0.1387214964445808</v>
       </c>
       <c r="J9">
-        <v>0.1350143981120275</v>
+        <v>0.1487743969271857</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.183600016339869</v>
+        <v>0.048421</v>
       </c>
       <c r="N9">
-        <v>0.183600016339869</v>
+        <v>0.145263</v>
       </c>
       <c r="O9">
-        <v>0.005001409158003873</v>
+        <v>0.00107482608012435</v>
       </c>
       <c r="P9">
-        <v>0.005001409158003873</v>
+        <v>0.001077942460937377</v>
       </c>
       <c r="Q9">
-        <v>3.762611396769456</v>
+        <v>1.053167289637667</v>
       </c>
       <c r="R9">
-        <v>3.762611396769456</v>
+        <v>9.478505606739001</v>
       </c>
       <c r="S9">
-        <v>0.0006752622471798749</v>
+        <v>0.0001491014822525128</v>
       </c>
       <c r="T9">
-        <v>0.0006752622471798749</v>
+        <v>0.0001603702395481648</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>28.7407743079077</v>
+        <v>21.75021766666667</v>
       </c>
       <c r="H10">
-        <v>28.7407743079077</v>
+        <v>65.250653</v>
       </c>
       <c r="I10">
-        <v>0.1893485125940211</v>
+        <v>0.1387214964445808</v>
       </c>
       <c r="J10">
-        <v>0.1893485125940211</v>
+        <v>0.1487743969271857</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.183886783266226</v>
+        <v>19.00592</v>
       </c>
       <c r="N10">
-        <v>0.183886783266226</v>
+        <v>57.01776</v>
       </c>
       <c r="O10">
-        <v>0.00500922091510655</v>
+        <v>0.4218842752681067</v>
       </c>
       <c r="P10">
-        <v>0.00500922091510655</v>
+        <v>0.4231074983411932</v>
       </c>
       <c r="Q10">
-        <v>5.28504853606174</v>
+        <v>413.3828969552533</v>
       </c>
       <c r="R10">
-        <v>5.28504853606174</v>
+        <v>3720.44607259728</v>
       </c>
       <c r="S10">
-        <v>0.0009484885295302864</v>
+        <v>0.0585244179916292</v>
       </c>
       <c r="T10">
-        <v>0.0009484885295302864</v>
+        <v>0.06294756290108126</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>28.7407743079077</v>
+        <v>21.75021766666667</v>
       </c>
       <c r="H11">
-        <v>28.7407743079077</v>
+        <v>65.250653</v>
       </c>
       <c r="I11">
-        <v>0.1893485125940211</v>
+        <v>0.1387214964445808</v>
       </c>
       <c r="J11">
-        <v>0.1893485125940211</v>
+        <v>0.1487743969271857</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>11.1245070730189</v>
+        <v>25.443508</v>
       </c>
       <c r="N11">
-        <v>11.1245070730189</v>
+        <v>76.330524</v>
       </c>
       <c r="O11">
-        <v>0.303040340967517</v>
+        <v>0.5647827588908232</v>
       </c>
       <c r="P11">
-        <v>0.303040340967517</v>
+        <v>0.5664203058259815</v>
       </c>
       <c r="Q11">
-        <v>319.7269470723591</v>
+        <v>553.4018372035747</v>
       </c>
       <c r="R11">
-        <v>319.7269470723591</v>
+        <v>4980.616534832172</v>
       </c>
       <c r="S11">
-        <v>0.05738023781818434</v>
+        <v>0.07834750947943386</v>
       </c>
       <c r="T11">
-        <v>0.05738023781818434</v>
+        <v>0.08426883940657251</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>28.7407743079077</v>
+        <v>21.75021766666667</v>
       </c>
       <c r="H12">
-        <v>28.7407743079077</v>
+        <v>65.250653</v>
       </c>
       <c r="I12">
-        <v>0.1893485125940211</v>
+        <v>0.1387214964445808</v>
       </c>
       <c r="J12">
-        <v>0.1893485125940211</v>
+        <v>0.1487743969271857</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>25.2176634538606</v>
+        <v>0.1615046666666667</v>
       </c>
       <c r="N12">
-        <v>25.2176634538606</v>
+        <v>0.484514</v>
       </c>
       <c r="O12">
-        <v>0.6869490289593727</v>
+        <v>0.003585002949032923</v>
       </c>
       <c r="P12">
-        <v>0.6869490289593727</v>
+        <v>0.003595397406900673</v>
       </c>
       <c r="Q12">
-        <v>724.7751739001797</v>
+        <v>3.512761654182444</v>
       </c>
       <c r="R12">
-        <v>724.7751739001797</v>
+        <v>31.614854887642</v>
       </c>
       <c r="S12">
-        <v>0.1300727768613643</v>
+        <v>0.0004973169738480823</v>
       </c>
       <c r="T12">
-        <v>0.1300727768613643</v>
+        <v>0.0005349030809252151</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,57 +1219,57 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>28.7407743079077</v>
+        <v>21.75021766666667</v>
       </c>
       <c r="H13">
-        <v>28.7407743079077</v>
+        <v>65.250653</v>
       </c>
       <c r="I13">
-        <v>0.1893485125940211</v>
+        <v>0.1387214964445808</v>
       </c>
       <c r="J13">
-        <v>0.1893485125940211</v>
+        <v>0.1487743969271857</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.183600016339869</v>
+        <v>0.1894915</v>
       </c>
       <c r="N13">
-        <v>0.183600016339869</v>
+        <v>0.378983</v>
       </c>
       <c r="O13">
-        <v>0.005001409158003873</v>
+        <v>0.004206241220996745</v>
       </c>
       <c r="P13">
-        <v>0.005001409158003873</v>
+        <v>0.002812291276329348</v>
       </c>
       <c r="Q13">
-        <v>5.276806632552341</v>
+        <v>4.121481370983167</v>
       </c>
       <c r="R13">
-        <v>5.276806632552341</v>
+        <v>24.728888225899</v>
       </c>
       <c r="S13">
-        <v>0.0009470093849421489</v>
+        <v>0.000583496076583549</v>
       </c>
       <c r="T13">
-        <v>0.0009470093849421489</v>
+        <v>0.0004183969386194842</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1281,57 +1281,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>54.5696357641836</v>
+        <v>31.00397566666667</v>
       </c>
       <c r="H14">
-        <v>54.5696357641836</v>
+        <v>93.011927</v>
       </c>
       <c r="I14">
-        <v>0.3595129085267109</v>
+        <v>0.1977413728048684</v>
       </c>
       <c r="J14">
-        <v>0.3595129085267109</v>
+        <v>0.2120713389099788</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.183886783266226</v>
+        <v>0.201234</v>
       </c>
       <c r="N14">
-        <v>0.183886783266226</v>
+        <v>0.402468</v>
       </c>
       <c r="O14">
-        <v>0.00500922091510655</v>
+        <v>0.004466895590915998</v>
       </c>
       <c r="P14">
-        <v>0.00500922091510655</v>
+        <v>0.002986564688658119</v>
       </c>
       <c r="Q14">
-        <v>10.03463478468533</v>
+        <v>6.239054039306</v>
       </c>
       <c r="R14">
-        <v>10.03463478468533</v>
+        <v>37.434324235836</v>
       </c>
       <c r="S14">
-        <v>0.001800879580642788</v>
+        <v>0.0008832900663237434</v>
       </c>
       <c r="T14">
-        <v>0.001800879580642788</v>
+        <v>0.0006333647722649914</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,60 +1340,60 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>54.5696357641836</v>
+        <v>31.00397566666667</v>
       </c>
       <c r="H15">
-        <v>54.5696357641836</v>
+        <v>93.011927</v>
       </c>
       <c r="I15">
-        <v>0.3595129085267109</v>
+        <v>0.1977413728048684</v>
       </c>
       <c r="J15">
-        <v>0.3595129085267109</v>
+        <v>0.2120713389099788</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>11.1245070730189</v>
+        <v>0.048421</v>
       </c>
       <c r="N15">
-        <v>11.1245070730189</v>
+        <v>0.145263</v>
       </c>
       <c r="O15">
-        <v>0.303040340967517</v>
+        <v>0.00107482608012435</v>
       </c>
       <c r="P15">
-        <v>0.303040340967517</v>
+        <v>0.001077942460937377</v>
       </c>
       <c r="Q15">
-        <v>607.0602990307257</v>
+        <v>1.501243505755667</v>
       </c>
       <c r="R15">
-        <v>607.0602990307257</v>
+        <v>13.511191551801</v>
       </c>
       <c r="S15">
-        <v>0.1089469143821582</v>
+        <v>0.0002125375846102646</v>
       </c>
       <c r="T15">
-        <v>0.1089469143821582</v>
+        <v>0.0002286007009589072</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,184 +1402,184 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>54.5696357641836</v>
+        <v>31.00397566666667</v>
       </c>
       <c r="H16">
-        <v>54.5696357641836</v>
+        <v>93.011927</v>
       </c>
       <c r="I16">
-        <v>0.3595129085267109</v>
+        <v>0.1977413728048684</v>
       </c>
       <c r="J16">
-        <v>0.3595129085267109</v>
+        <v>0.2120713389099788</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>25.2176634538606</v>
+        <v>19.00592</v>
       </c>
       <c r="N16">
-        <v>25.2176634538606</v>
+        <v>57.01776</v>
       </c>
       <c r="O16">
-        <v>0.6869490289593727</v>
+        <v>0.4218842752681067</v>
       </c>
       <c r="P16">
-        <v>0.6869490289593727</v>
+        <v>0.4231074983411932</v>
       </c>
       <c r="Q16">
-        <v>1376.118709500937</v>
+        <v>589.2590812026133</v>
       </c>
       <c r="R16">
-        <v>1376.118709500937</v>
+        <v>5303.331730823519</v>
       </c>
       <c r="S16">
-        <v>0.2469670434107838</v>
+        <v>0.08342397575630241</v>
       </c>
       <c r="T16">
-        <v>0.2469670434107838</v>
+        <v>0.08972897367606848</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>25</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>54.5696357641836</v>
+        <v>31.00397566666667</v>
       </c>
       <c r="H17">
-        <v>54.5696357641836</v>
+        <v>93.011927</v>
       </c>
       <c r="I17">
-        <v>0.3595129085267109</v>
+        <v>0.1977413728048684</v>
       </c>
       <c r="J17">
-        <v>0.3595129085267109</v>
+        <v>0.2120713389099788</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.183600016339869</v>
+        <v>25.443508</v>
       </c>
       <c r="N17">
-        <v>0.183600016339869</v>
+        <v>76.330524</v>
       </c>
       <c r="O17">
-        <v>0.005001409158003873</v>
+        <v>0.5647827588908232</v>
       </c>
       <c r="P17">
-        <v>0.005001409158003873</v>
+        <v>0.5664203058259815</v>
       </c>
       <c r="Q17">
-        <v>10.01898601796481</v>
+        <v>788.8499029066386</v>
       </c>
       <c r="R17">
-        <v>10.01898601796481</v>
+        <v>7099.649126159748</v>
       </c>
       <c r="S17">
-        <v>0.001798071153126101</v>
+        <v>0.1116809180795924</v>
       </c>
       <c r="T17">
-        <v>0.001798071153126101</v>
+        <v>0.1201215126423156</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>17.2969937086613</v>
+        <v>31.00397566666667</v>
       </c>
       <c r="H18">
-        <v>17.2969937086613</v>
+        <v>93.011927</v>
       </c>
       <c r="I18">
-        <v>0.1139551772682073</v>
+        <v>0.1977413728048684</v>
       </c>
       <c r="J18">
-        <v>0.1139551772682073</v>
+        <v>0.2120713389099788</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>0.183886783266226</v>
+        <v>0.1615046666666667</v>
       </c>
       <c r="N18">
-        <v>0.183886783266226</v>
+        <v>0.484514</v>
       </c>
       <c r="O18">
-        <v>0.00500922091510655</v>
+        <v>0.003585002949032923</v>
       </c>
       <c r="P18">
-        <v>0.00500922091510655</v>
+        <v>0.003595397406900673</v>
       </c>
       <c r="Q18">
-        <v>3.180688533261876</v>
+        <v>5.007286755386444</v>
       </c>
       <c r="R18">
-        <v>3.180688533261876</v>
+        <v>45.065580798478</v>
       </c>
       <c r="S18">
-        <v>0.0005708266573565782</v>
+        <v>0.0007089034046512719</v>
       </c>
       <c r="T18">
-        <v>0.0005708266573565782</v>
+        <v>0.0007624807419948916</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,60 +1588,60 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>17.2969937086613</v>
+        <v>31.00397566666667</v>
       </c>
       <c r="H19">
-        <v>17.2969937086613</v>
+        <v>93.011927</v>
       </c>
       <c r="I19">
-        <v>0.1139551772682073</v>
+        <v>0.1977413728048684</v>
       </c>
       <c r="J19">
-        <v>0.1139551772682073</v>
+        <v>0.2120713389099788</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>11.1245070730189</v>
+        <v>0.1894915</v>
       </c>
       <c r="N19">
-        <v>11.1245070730189</v>
+        <v>0.378983</v>
       </c>
       <c r="O19">
-        <v>0.303040340967517</v>
+        <v>0.004206241220996745</v>
       </c>
       <c r="P19">
-        <v>0.303040340967517</v>
+        <v>0.002812291276329348</v>
       </c>
       <c r="Q19">
-        <v>192.4205288539661</v>
+        <v>5.874989855040167</v>
       </c>
       <c r="R19">
-        <v>192.4205288539661</v>
+        <v>35.249939130241</v>
       </c>
       <c r="S19">
-        <v>0.03453301577437137</v>
+        <v>0.0008317479133883222</v>
       </c>
       <c r="T19">
-        <v>0.03453301577437137</v>
+        <v>0.0005964063763760181</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1650,60 +1650,60 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>17.2969937086613</v>
+        <v>54.68136733333333</v>
       </c>
       <c r="H20">
-        <v>17.2969937086613</v>
+        <v>164.044102</v>
       </c>
       <c r="I20">
-        <v>0.1139551772682073</v>
+        <v>0.3487542616983074</v>
       </c>
       <c r="J20">
-        <v>0.1139551772682073</v>
+        <v>0.37402786366769</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>25.2176634538606</v>
+        <v>0.201234</v>
       </c>
       <c r="N20">
-        <v>25.2176634538606</v>
+        <v>0.402468</v>
       </c>
       <c r="O20">
-        <v>0.6869490289593727</v>
+        <v>0.004466895590915998</v>
       </c>
       <c r="P20">
-        <v>0.6869490289593727</v>
+        <v>0.002986564688658119</v>
       </c>
       <c r="Q20">
-        <v>436.1897661085648</v>
+        <v>11.003750273956</v>
       </c>
       <c r="R20">
-        <v>436.1897661085648</v>
+        <v>66.02250164373601</v>
       </c>
       <c r="S20">
-        <v>0.07828139836928816</v>
+        <v>0.001557848873893333</v>
       </c>
       <c r="T20">
-        <v>0.07828139836928816</v>
+        <v>0.001117058410204156</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>17.2969937086613</v>
+        <v>54.68136733333333</v>
       </c>
       <c r="H21">
-        <v>17.2969937086613</v>
+        <v>164.044102</v>
       </c>
       <c r="I21">
-        <v>0.1139551772682073</v>
+        <v>0.3487542616983074</v>
       </c>
       <c r="J21">
-        <v>0.1139551772682073</v>
+        <v>0.37402786366769</v>
       </c>
       <c r="K21">
         <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.183600016339869</v>
+        <v>0.048421</v>
       </c>
       <c r="N21">
-        <v>0.183600016339869</v>
+        <v>0.145263</v>
       </c>
       <c r="O21">
-        <v>0.005001409158003873</v>
+        <v>0.00107482608012435</v>
       </c>
       <c r="P21">
-        <v>0.005001409158003873</v>
+        <v>0.001077942460937377</v>
       </c>
       <c r="Q21">
-        <v>3.175728327540826</v>
+        <v>2.647726487647333</v>
       </c>
       <c r="R21">
-        <v>3.175728327540826</v>
+        <v>23.829538388826</v>
       </c>
       <c r="S21">
-        <v>0.0005699364671911666</v>
+        <v>0.0003748501760278536</v>
       </c>
       <c r="T21">
-        <v>0.0005699364671911666</v>
+        <v>0.0004031805158210996</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.78997169000015</v>
+        <v>54.68136733333333</v>
       </c>
       <c r="H22">
-        <v>1.78997169000015</v>
+        <v>164.044102</v>
       </c>
       <c r="I22">
-        <v>0.01179260076488901</v>
+        <v>0.3487542616983074</v>
       </c>
       <c r="J22">
-        <v>0.01179260076488901</v>
+        <v>0.37402786366769</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.183886783266226</v>
+        <v>19.00592</v>
       </c>
       <c r="N22">
-        <v>0.183886783266226</v>
+        <v>57.01776</v>
       </c>
       <c r="O22">
-        <v>0.00500922091510655</v>
+        <v>0.4218842752681067</v>
       </c>
       <c r="P22">
-        <v>0.00500922091510655</v>
+        <v>0.4231074983411932</v>
       </c>
       <c r="Q22">
-        <v>0.3291521362117379</v>
+        <v>1039.269693027947</v>
       </c>
       <c r="R22">
-        <v>0.3291521362117379</v>
+        <v>9353.427237251521</v>
       </c>
       <c r="S22">
-        <v>5.907174239498351E-05</v>
+        <v>0.147133938943254</v>
       </c>
       <c r="T22">
-        <v>5.907174239498351E-05</v>
+        <v>0.1582539937063372</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,60 +1836,60 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.78997169000015</v>
+        <v>54.68136733333333</v>
       </c>
       <c r="H23">
-        <v>1.78997169000015</v>
+        <v>164.044102</v>
       </c>
       <c r="I23">
-        <v>0.01179260076488901</v>
+        <v>0.3487542616983074</v>
       </c>
       <c r="J23">
-        <v>0.01179260076488901</v>
+        <v>0.37402786366769</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>11.1245070730189</v>
+        <v>25.443508</v>
       </c>
       <c r="N23">
-        <v>11.1245070730189</v>
+        <v>76.330524</v>
       </c>
       <c r="O23">
-        <v>0.303040340967517</v>
+        <v>0.5647827588908232</v>
       </c>
       <c r="P23">
-        <v>0.303040340967517</v>
+        <v>0.5664203058259815</v>
       </c>
       <c r="Q23">
-        <v>19.91255272591026</v>
+        <v>1391.285807196605</v>
       </c>
       <c r="R23">
-        <v>19.91255272591026</v>
+        <v>12521.57226476945</v>
       </c>
       <c r="S23">
-        <v>0.003573633756685767</v>
+        <v>0.1969703940969022</v>
       </c>
       <c r="T23">
-        <v>0.003573633756685767</v>
+        <v>0.2118569769260915</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1898,60 +1898,60 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.78997169000015</v>
+        <v>54.68136733333333</v>
       </c>
       <c r="H24">
-        <v>1.78997169000015</v>
+        <v>164.044102</v>
       </c>
       <c r="I24">
-        <v>0.01179260076488901</v>
+        <v>0.3487542616983074</v>
       </c>
       <c r="J24">
-        <v>0.01179260076488901</v>
+        <v>0.37402786366769</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>25.2176634538606</v>
+        <v>0.1615046666666667</v>
       </c>
       <c r="N24">
-        <v>25.2176634538606</v>
+        <v>0.484514</v>
       </c>
       <c r="O24">
-        <v>0.6869490289593727</v>
+        <v>0.003585002949032923</v>
       </c>
       <c r="P24">
-        <v>0.6869490289593727</v>
+        <v>0.003595397406900673</v>
       </c>
       <c r="Q24">
-        <v>45.13890367036188</v>
+        <v>8.831296004047555</v>
       </c>
       <c r="R24">
-        <v>45.13890367036188</v>
+        <v>79.481664036428</v>
       </c>
       <c r="S24">
-        <v>0.008100915644346059</v>
+        <v>0.001250285056676232</v>
       </c>
       <c r="T24">
-        <v>0.008100915644346059</v>
+        <v>0.001344778811139411</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1963,52 +1963,796 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.78997169000015</v>
+        <v>54.68136733333333</v>
       </c>
       <c r="H25">
-        <v>1.78997169000015</v>
+        <v>164.044102</v>
       </c>
       <c r="I25">
-        <v>0.01179260076488901</v>
+        <v>0.3487542616983074</v>
       </c>
       <c r="J25">
-        <v>0.01179260076488901</v>
+        <v>0.37402786366769</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.183600016339869</v>
+        <v>0.1894915</v>
       </c>
       <c r="N25">
-        <v>0.183600016339869</v>
+        <v>0.378983</v>
       </c>
       <c r="O25">
-        <v>0.005001409158003873</v>
+        <v>0.004206241220996745</v>
       </c>
       <c r="P25">
-        <v>0.005001409158003873</v>
+        <v>0.002812291276329348</v>
       </c>
       <c r="Q25">
-        <v>0.3286388315319305</v>
+        <v>10.36165431804433</v>
       </c>
       <c r="R25">
-        <v>0.3286388315319305</v>
+        <v>62.16992590826601</v>
       </c>
       <c r="S25">
-        <v>5.897962146219936E-05</v>
+        <v>0.001466944551553707</v>
       </c>
       <c r="T25">
-        <v>5.897962146219936E-05</v>
+        <v>0.001051875298096747</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>17.571287</v>
+      </c>
+      <c r="H26">
+        <v>52.713861</v>
+      </c>
+      <c r="I26">
+        <v>0.1120685440694613</v>
+      </c>
+      <c r="J26">
+        <v>0.1201899524281925</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.201234</v>
+      </c>
+      <c r="N26">
+        <v>0.402468</v>
+      </c>
+      <c r="O26">
+        <v>0.004466895590915998</v>
+      </c>
+      <c r="P26">
+        <v>0.002986564688658119</v>
+      </c>
+      <c r="Q26">
+        <v>3.535940368158</v>
+      </c>
+      <c r="R26">
+        <v>21.215642208948</v>
+      </c>
+      <c r="S26">
+        <v>0.0005005984853842518</v>
+      </c>
+      <c r="T26">
+        <v>0.000358955067853539</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>17.571287</v>
+      </c>
+      <c r="H27">
+        <v>52.713861</v>
+      </c>
+      <c r="I27">
+        <v>0.1120685440694613</v>
+      </c>
+      <c r="J27">
+        <v>0.1201899524281925</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M27">
+        <v>0.048421</v>
+      </c>
+      <c r="N27">
+        <v>0.145263</v>
+      </c>
+      <c r="O27">
+        <v>0.00107482608012435</v>
+      </c>
+      <c r="P27">
+        <v>0.001077942460937377</v>
+      </c>
+      <c r="Q27">
+        <v>0.850819287827</v>
+      </c>
+      <c r="R27">
+        <v>7.657373590443</v>
+      </c>
+      <c r="S27">
+        <v>0.0001204541939274221</v>
+      </c>
+      <c r="T27">
+        <v>0.0001295578531003921</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>17.571287</v>
+      </c>
+      <c r="H28">
+        <v>52.713861</v>
+      </c>
+      <c r="I28">
+        <v>0.1120685440694613</v>
+      </c>
+      <c r="J28">
+        <v>0.1201899524281925</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>19.00592</v>
+      </c>
+      <c r="N28">
+        <v>57.01776</v>
+      </c>
+      <c r="O28">
+        <v>0.4218842752681067</v>
+      </c>
+      <c r="P28">
+        <v>0.4231074983411932</v>
+      </c>
+      <c r="Q28">
+        <v>333.95847501904</v>
+      </c>
+      <c r="R28">
+        <v>3005.62627517136</v>
+      </c>
+      <c r="S28">
+        <v>0.04727995649509655</v>
+      </c>
+      <c r="T28">
+        <v>0.05085327009763956</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>17.571287</v>
+      </c>
+      <c r="H29">
+        <v>52.713861</v>
+      </c>
+      <c r="I29">
+        <v>0.1120685440694613</v>
+      </c>
+      <c r="J29">
+        <v>0.1201899524281925</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>25.443508</v>
+      </c>
+      <c r="N29">
+        <v>76.330524</v>
+      </c>
+      <c r="O29">
+        <v>0.5647827588908232</v>
+      </c>
+      <c r="P29">
+        <v>0.5664203058259815</v>
+      </c>
+      <c r="Q29">
+        <v>447.075181354796</v>
+      </c>
+      <c r="R29">
+        <v>4023.676632193164</v>
+      </c>
+      <c r="S29">
+        <v>0.06329438150442813</v>
+      </c>
+      <c r="T29">
+        <v>0.06807802961158696</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>17.571287</v>
+      </c>
+      <c r="H30">
+        <v>52.713861</v>
+      </c>
+      <c r="I30">
+        <v>0.1120685440694613</v>
+      </c>
+      <c r="J30">
+        <v>0.1201899524281925</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M30">
+        <v>0.1615046666666667</v>
+      </c>
+      <c r="N30">
+        <v>0.484514</v>
+      </c>
+      <c r="O30">
+        <v>0.003585002949032923</v>
+      </c>
+      <c r="P30">
+        <v>0.003595397406900673</v>
+      </c>
+      <c r="Q30">
+        <v>2.837844849839334</v>
+      </c>
+      <c r="R30">
+        <v>25.540603648554</v>
+      </c>
+      <c r="S30">
+        <v>0.0004017660609828448</v>
+      </c>
+      <c r="T30">
+        <v>0.0004321306432958386</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>17.571287</v>
+      </c>
+      <c r="H31">
+        <v>52.713861</v>
+      </c>
+      <c r="I31">
+        <v>0.1120685440694613</v>
+      </c>
+      <c r="J31">
+        <v>0.1201899524281925</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0.1894915</v>
+      </c>
+      <c r="N31">
+        <v>0.378983</v>
+      </c>
+      <c r="O31">
+        <v>0.004206241220996745</v>
+      </c>
+      <c r="P31">
+        <v>0.002812291276329348</v>
+      </c>
+      <c r="Q31">
+        <v>3.3296095305605</v>
+      </c>
+      <c r="R31">
+        <v>19.977657183363</v>
+      </c>
+      <c r="S31">
+        <v>0.0004713873296420583</v>
+      </c>
+      <c r="T31">
+        <v>0.0003380091547162451</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>2.0364265</v>
+      </c>
+      <c r="H32">
+        <v>4.072853</v>
+      </c>
+      <c r="I32">
+        <v>0.0129881979026049</v>
+      </c>
+      <c r="J32">
+        <v>0.009286286358668003</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>0.201234</v>
+      </c>
+      <c r="N32">
+        <v>0.402468</v>
+      </c>
+      <c r="O32">
+        <v>0.004466895590915998</v>
+      </c>
+      <c r="P32">
+        <v>0.002986564688658119</v>
+      </c>
+      <c r="Q32">
+        <v>0.409798250301</v>
+      </c>
+      <c r="R32">
+        <v>1.639193001204</v>
+      </c>
+      <c r="S32">
+        <v>5.801692394509024E-05</v>
+      </c>
+      <c r="T32">
+        <v>2.773409492756544E-05</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>2.0364265</v>
+      </c>
+      <c r="H33">
+        <v>4.072853</v>
+      </c>
+      <c r="I33">
+        <v>0.0129881979026049</v>
+      </c>
+      <c r="J33">
+        <v>0.009286286358668003</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M33">
+        <v>0.048421</v>
+      </c>
+      <c r="N33">
+        <v>0.145263</v>
+      </c>
+      <c r="O33">
+        <v>0.00107482608012435</v>
+      </c>
+      <c r="P33">
+        <v>0.001077942460937377</v>
+      </c>
+      <c r="Q33">
+        <v>0.0986058075565</v>
+      </c>
+      <c r="R33">
+        <v>0.591634845339</v>
+      </c>
+      <c r="S33">
+        <v>1.396005383953614E-05</v>
+      </c>
+      <c r="T33">
+        <v>1.001008237043178E-05</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>2.0364265</v>
+      </c>
+      <c r="H34">
+        <v>4.072853</v>
+      </c>
+      <c r="I34">
+        <v>0.0129881979026049</v>
+      </c>
+      <c r="J34">
+        <v>0.009286286358668003</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>19.00592</v>
+      </c>
+      <c r="N34">
+        <v>57.01776</v>
+      </c>
+      <c r="O34">
+        <v>0.4218842752681067</v>
+      </c>
+      <c r="P34">
+        <v>0.4231074983411932</v>
+      </c>
+      <c r="Q34">
+        <v>38.70415914488</v>
+      </c>
+      <c r="R34">
+        <v>232.22495486928</v>
+      </c>
+      <c r="S34">
+        <v>0.005479516459179212</v>
+      </c>
+      <c r="T34">
+        <v>0.003929097390095967</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>2.0364265</v>
+      </c>
+      <c r="H35">
+        <v>4.072853</v>
+      </c>
+      <c r="I35">
+        <v>0.0129881979026049</v>
+      </c>
+      <c r="J35">
+        <v>0.009286286358668003</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>25.443508</v>
+      </c>
+      <c r="N35">
+        <v>76.330524</v>
+      </c>
+      <c r="O35">
+        <v>0.5647827588908232</v>
+      </c>
+      <c r="P35">
+        <v>0.5664203058259815</v>
+      </c>
+      <c r="Q35">
+        <v>51.813833944162</v>
+      </c>
+      <c r="R35">
+        <v>310.883003664972</v>
+      </c>
+      <c r="S35">
+        <v>0.0073355102444532</v>
+      </c>
+      <c r="T35">
+        <v>0.00525994115926437</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>2.0364265</v>
+      </c>
+      <c r="H36">
+        <v>4.072853</v>
+      </c>
+      <c r="I36">
+        <v>0.0129881979026049</v>
+      </c>
+      <c r="J36">
+        <v>0.009286286358668003</v>
+      </c>
+      <c r="K36">
+        <v>2</v>
+      </c>
+      <c r="L36">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M36">
+        <v>0.1615046666666667</v>
+      </c>
+      <c r="N36">
+        <v>0.484514</v>
+      </c>
+      <c r="O36">
+        <v>0.003585002949032923</v>
+      </c>
+      <c r="P36">
+        <v>0.003595397406900673</v>
+      </c>
+      <c r="Q36">
+        <v>0.3288923830736667</v>
+      </c>
+      <c r="R36">
+        <v>1.973354298442</v>
+      </c>
+      <c r="S36">
+        <v>4.65627277834618E-05</v>
+      </c>
+      <c r="T36">
+        <v>3.338788989369202E-05</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>2.0364265</v>
+      </c>
+      <c r="H37">
+        <v>4.072853</v>
+      </c>
+      <c r="I37">
+        <v>0.0129881979026049</v>
+      </c>
+      <c r="J37">
+        <v>0.009286286358668003</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>0.1894915</v>
+      </c>
+      <c r="N37">
+        <v>0.378983</v>
+      </c>
+      <c r="O37">
+        <v>0.004206241220996745</v>
+      </c>
+      <c r="P37">
+        <v>0.002812291276329348</v>
+      </c>
+      <c r="Q37">
+        <v>0.38588551212475</v>
+      </c>
+      <c r="R37">
+        <v>1.543542048499</v>
+      </c>
+      <c r="S37">
+        <v>5.46314934044002E-05</v>
+      </c>
+      <c r="T37">
+        <v>2.611574211597825E-05</v>
       </c>
     </row>
   </sheetData>
